--- a/FireMeta_Rproj/inputs/Studies/Andres_Sanchez_et_al_2023/Andres_Sanchez_et_al_2023.xlsx
+++ b/FireMeta_Rproj/inputs/Studies/Andres_Sanchez_et_al_2023/Andres_Sanchez_et_al_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Andres_Sanchez_et_al_2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies/Andres_Sanchez_et_al_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEB264E-ABD1-704A-9E0E-1F396E8F1AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A6FE6C-5DB2-8646-B16A-E086789B17FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="760" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="50">
   <si>
     <t>Study_ID</t>
   </si>
@@ -154,6 +154,39 @@
   <si>
     <t>Pre- and post-fire surface water samples were collected monthly from the outlet of each catchment during dry periods (i.e., pre-snowmelt and summer), and weekly to biweekly during snowmelt and summer monsoon wet seasons.  Don’t have the coordinates of the exact watersheds</t>
   </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Q_unit</t>
+  </si>
+  <si>
+    <t>Average_watershed_km</t>
+  </si>
+  <si>
+    <t>NO3_Yield</t>
+  </si>
+  <si>
+    <t>NO3_Yield_unit</t>
+  </si>
+  <si>
+    <t>DOC_Yield</t>
+  </si>
+  <si>
+    <t>DOC_Yield_unit</t>
+  </si>
+  <si>
+    <t>STDEV_NO3_Yield</t>
+  </si>
+  <si>
+    <t>STDEV_DOC_Yield</t>
+  </si>
+  <si>
+    <t>mmol_m_year</t>
+  </si>
+  <si>
+    <t>Figure_4/Table_S2</t>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +233,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -230,6 +270,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,11 +585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7C6567-21D2-984F-88AC-EA2A27125A57}">
-  <dimension ref="A1:V958"/>
+  <dimension ref="A1:AE958"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E453"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD448" sqref="AD448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,10 +604,13 @@
     <col min="11" max="11" width="10.83203125" style="6"/>
     <col min="12" max="17" width="10.83203125" style="1"/>
     <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="19" max="22" width="10.83203125" style="1"/>
+    <col min="23" max="23" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,13 +672,40 @@
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -683,14 +754,32 @@
       <c r="R2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -739,12 +828,12 @@
       <c r="R3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="7"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -793,12 +882,12 @@
       <c r="R4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE4" s="7"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -842,12 +931,12 @@
         <v>33</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="U5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" s="7"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -891,11 +980,11 @@
         <v>33</v>
       </c>
       <c r="Q6" s="5"/>
-      <c r="U6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -939,11 +1028,11 @@
         <v>33</v>
       </c>
       <c r="Q7" s="5"/>
-      <c r="U7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -987,11 +1076,11 @@
         <v>33</v>
       </c>
       <c r="Q8" s="5"/>
-      <c r="U8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1035,11 +1124,11 @@
         <v>33</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="U9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1082,11 +1171,11 @@
       <c r="N10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1129,11 +1218,11 @@
       <c r="N11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1176,11 +1265,11 @@
       <c r="N12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1223,11 +1312,11 @@
       <c r="N13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1270,11 +1359,11 @@
       <c r="N14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1317,11 +1406,11 @@
       <c r="N15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1370,11 +1459,29 @@
       <c r="R16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1423,11 +1530,11 @@
       <c r="R17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1476,11 +1583,11 @@
       <c r="R18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1529,11 +1636,11 @@
       <c r="R19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1582,11 +1689,11 @@
       <c r="R20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1629,11 +1736,11 @@
       <c r="N21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1676,11 +1783,11 @@
       <c r="N22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1723,11 +1830,11 @@
       <c r="N23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1770,11 +1877,11 @@
       <c r="N24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1817,11 +1924,11 @@
       <c r="N25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1864,11 +1971,11 @@
       <c r="N26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1911,11 +2018,11 @@
       <c r="N27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1958,11 +2065,11 @@
       <c r="N28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2005,11 +2112,11 @@
       <c r="N29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2052,11 +2159,11 @@
       <c r="N30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -2099,11 +2206,29 @@
       <c r="N31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -2146,11 +2271,11 @@
       <c r="N32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2193,11 +2318,11 @@
       <c r="N33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2240,11 +2365,11 @@
       <c r="N34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -2287,11 +2412,11 @@
       <c r="N35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -2334,11 +2459,11 @@
       <c r="N36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U36" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD36" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -2381,11 +2506,11 @@
       <c r="N37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -2428,11 +2553,11 @@
       <c r="N38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -2475,11 +2600,11 @@
       <c r="N39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -2522,11 +2647,11 @@
       <c r="N40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -2569,11 +2694,11 @@
       <c r="N41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U41" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
@@ -2616,11 +2741,11 @@
       <c r="N42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD42" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
@@ -2663,11 +2788,11 @@
       <c r="N43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U43" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -2710,11 +2835,11 @@
       <c r="N44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U44" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD44" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -2757,11 +2882,11 @@
       <c r="N45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U45" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -2804,11 +2929,11 @@
       <c r="N46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U46" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -2851,11 +2976,11 @@
       <c r="N47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U47" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD47" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
@@ -2898,11 +3023,11 @@
       <c r="N48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U48" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -2951,11 +3076,29 @@
       <c r="R49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U49" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X49" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>23.98</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -3004,11 +3147,11 @@
       <c r="R50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U50" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -3057,11 +3200,11 @@
       <c r="R51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U51" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD51" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -3110,11 +3253,11 @@
       <c r="R52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U52" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD52" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -3163,11 +3306,11 @@
       <c r="R53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U53" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD53" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -3216,11 +3359,11 @@
       <c r="R54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U54" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD54" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
@@ -3269,11 +3412,11 @@
       <c r="R55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U55" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD55" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>28</v>
       </c>
@@ -3322,11 +3465,11 @@
       <c r="R56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U56" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD56" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
@@ -3375,11 +3518,11 @@
       <c r="R57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U57" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD57" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
@@ -3428,11 +3571,11 @@
       <c r="R58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U58" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD58" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
@@ -3481,11 +3624,11 @@
       <c r="R59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U59" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD59" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
@@ -3534,11 +3677,11 @@
       <c r="R60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U60" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD60" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>28</v>
       </c>
@@ -3587,11 +3730,11 @@
       <c r="R61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U61" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD61" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>28</v>
       </c>
@@ -3640,11 +3783,11 @@
       <c r="R62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U62" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD62" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>28</v>
       </c>
@@ -3693,11 +3836,11 @@
       <c r="R63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U63" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD63" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>28</v>
       </c>
@@ -3746,11 +3889,11 @@
       <c r="R64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U64" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD64" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>28</v>
       </c>
@@ -3799,11 +3942,11 @@
       <c r="R65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U65" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD65" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
@@ -3852,11 +3995,11 @@
       <c r="R66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U66" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD66" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
@@ -3905,11 +4048,11 @@
       <c r="R67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U67" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD67" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>28</v>
       </c>
@@ -3958,11 +4101,11 @@
       <c r="R68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U68" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD68" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>28</v>
       </c>
@@ -4011,11 +4154,11 @@
       <c r="R69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U69" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD69" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -4064,11 +4207,11 @@
       <c r="R70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U70" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD70" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>28</v>
       </c>
@@ -4117,11 +4260,11 @@
       <c r="R71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U71" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD71" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>28</v>
       </c>
@@ -4170,11 +4313,11 @@
       <c r="R72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U72" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD72" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -4217,11 +4360,11 @@
       <c r="N73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U73" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD73" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -4264,11 +4407,11 @@
       <c r="N74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U74" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD74" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>28</v>
       </c>
@@ -4311,11 +4454,11 @@
       <c r="N75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U75" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD75" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>28</v>
       </c>
@@ -4358,11 +4501,11 @@
       <c r="N76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U76" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD76" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>28</v>
       </c>
@@ -4405,11 +4548,11 @@
       <c r="N77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U77" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD77" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>28</v>
       </c>
@@ -4458,11 +4601,29 @@
       <c r="R78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U78" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V78" s="1">
+        <v>34</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X78" s="1">
+        <v>14.73</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>103.3</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="AD78" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -4511,11 +4672,11 @@
       <c r="R79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U79" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD79" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -4564,11 +4725,11 @@
       <c r="R80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U80" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD80" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4617,11 +4778,11 @@
       <c r="R81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U81" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD81" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -4670,11 +4831,11 @@
       <c r="R82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U82" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD82" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -4723,11 +4884,11 @@
       <c r="R83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U83" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD83" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -4776,11 +4937,11 @@
       <c r="R84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U84" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD84" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -4829,11 +4990,11 @@
       <c r="R85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U85" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD85" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -4882,11 +5043,11 @@
       <c r="R86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U86" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD86" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>28</v>
       </c>
@@ -4935,11 +5096,11 @@
       <c r="R87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U87" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD87" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>28</v>
       </c>
@@ -4988,11 +5149,11 @@
       <c r="R88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U88" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD88" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -5041,11 +5202,11 @@
       <c r="R89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U89" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD89" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>28</v>
       </c>
@@ -5094,11 +5255,11 @@
       <c r="R90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U90" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD90" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>28</v>
       </c>
@@ -5147,11 +5308,11 @@
       <c r="R91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U91" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD91" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>28</v>
       </c>
@@ -5200,11 +5361,11 @@
       <c r="R92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U92" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD92" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
@@ -5253,11 +5414,11 @@
       <c r="R93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U93" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD93" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -5306,11 +5467,11 @@
       <c r="R94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U94" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD94" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -5359,11 +5520,11 @@
       <c r="R95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U95" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD95" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -5412,11 +5573,11 @@
       <c r="R96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U96" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD96" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>28</v>
       </c>
@@ -5465,11 +5626,11 @@
       <c r="R97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U97" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD97" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>28</v>
       </c>
@@ -5512,11 +5673,11 @@
       <c r="N98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U98" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD98" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>28</v>
       </c>
@@ -5565,11 +5726,29 @@
       <c r="R99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U99" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="W99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X99" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="Z99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>13.96</v>
+      </c>
+      <c r="AD99" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>28</v>
       </c>
@@ -5618,11 +5797,11 @@
       <c r="R100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U100" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD100" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>28</v>
       </c>
@@ -5671,11 +5850,11 @@
       <c r="R101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U101" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD101" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>28</v>
       </c>
@@ -5724,11 +5903,11 @@
       <c r="R102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U102" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD102" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>28</v>
       </c>
@@ -5777,11 +5956,11 @@
       <c r="R103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U103" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD103" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>28</v>
       </c>
@@ -5830,11 +6009,11 @@
       <c r="R104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U104" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD104" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
@@ -5883,11 +6062,11 @@
       <c r="R105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U105" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD105" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
@@ -5936,11 +6115,11 @@
       <c r="R106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U106" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD106" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>28</v>
       </c>
@@ -5989,11 +6168,11 @@
       <c r="R107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U107" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD107" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>28</v>
       </c>
@@ -6042,11 +6221,11 @@
       <c r="R108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U108" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD108" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>28</v>
       </c>
@@ -6095,11 +6274,11 @@
       <c r="R109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U109" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD109" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>28</v>
       </c>
@@ -6148,11 +6327,11 @@
       <c r="R110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U110" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD110" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>28</v>
       </c>
@@ -6201,11 +6380,11 @@
       <c r="R111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U111" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD111" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>28</v>
       </c>
@@ -6254,11 +6433,11 @@
       <c r="R112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U112" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD112" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>28</v>
       </c>
@@ -6307,11 +6486,11 @@
       <c r="R113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U113" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD113" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>28</v>
       </c>
@@ -6360,11 +6539,11 @@
       <c r="R114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U114" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD114" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>28</v>
       </c>
@@ -6413,11 +6592,29 @@
       <c r="R115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U115" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V115" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="W115" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X115" s="1">
+        <v>8.64</v>
+      </c>
+      <c r="Y115" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="Z115" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA115" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="AD115" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>28</v>
       </c>
@@ -6466,11 +6663,11 @@
       <c r="R116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U116" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD116" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>28</v>
       </c>
@@ -6519,11 +6716,11 @@
       <c r="R117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U117" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD117" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>28</v>
       </c>
@@ -6572,11 +6769,11 @@
       <c r="R118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U118" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD118" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>28</v>
       </c>
@@ -6625,11 +6822,11 @@
       <c r="R119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U119" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD119" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>28</v>
       </c>
@@ -6678,11 +6875,11 @@
       <c r="R120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U120" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD120" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>28</v>
       </c>
@@ -6731,11 +6928,11 @@
       <c r="R121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U121" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD121" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>28</v>
       </c>
@@ -6784,11 +6981,11 @@
       <c r="R122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U122" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD122" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>28</v>
       </c>
@@ -6837,11 +7034,11 @@
       <c r="R123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U123" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD123" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>28</v>
       </c>
@@ -6890,11 +7087,11 @@
       <c r="R124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U124" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD124" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>28</v>
       </c>
@@ -6943,11 +7140,11 @@
       <c r="R125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U125" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD125" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>28</v>
       </c>
@@ -6996,11 +7193,11 @@
       <c r="R126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U126" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD126" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>28</v>
       </c>
@@ -7049,11 +7246,11 @@
       <c r="R127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U127" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD127" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>28</v>
       </c>
@@ -7102,11 +7299,11 @@
       <c r="R128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U128" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD128" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>28</v>
       </c>
@@ -7155,11 +7352,11 @@
       <c r="R129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U129" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD129" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>28</v>
       </c>
@@ -7208,11 +7405,11 @@
       <c r="R130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U130" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD130" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>28</v>
       </c>
@@ -7261,11 +7458,11 @@
       <c r="R131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U131" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD131" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>28</v>
       </c>
@@ -7314,11 +7511,29 @@
       <c r="R132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U132" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V132" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="W132" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X132" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="Y132" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="Z132" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA132" s="1">
+        <v>48.59</v>
+      </c>
+      <c r="AD132" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>28</v>
       </c>
@@ -7367,11 +7582,11 @@
       <c r="R133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U133" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD133" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>28</v>
       </c>
@@ -7420,11 +7635,11 @@
       <c r="R134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U134" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD134" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>28</v>
       </c>
@@ -7473,11 +7688,11 @@
       <c r="R135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U135" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD135" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>28</v>
       </c>
@@ -7526,11 +7741,11 @@
       <c r="R136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U136" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD136" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>28</v>
       </c>
@@ -7579,11 +7794,11 @@
       <c r="R137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U137" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD137" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>28</v>
       </c>
@@ -7632,11 +7847,11 @@
       <c r="R138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U138" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD138" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>28</v>
       </c>
@@ -7685,11 +7900,11 @@
       <c r="R139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U139" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD139" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>28</v>
       </c>
@@ -7738,11 +7953,11 @@
       <c r="R140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U140" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD140" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>28</v>
       </c>
@@ -7791,11 +8006,11 @@
       <c r="R141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U141" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD141" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>28</v>
       </c>
@@ -7844,11 +8059,11 @@
       <c r="R142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U142" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD142" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>28</v>
       </c>
@@ -7897,11 +8112,11 @@
       <c r="R143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U143" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD143" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>28</v>
       </c>
@@ -7950,11 +8165,11 @@
       <c r="R144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U144" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD144" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>28</v>
       </c>
@@ -8003,11 +8218,11 @@
       <c r="R145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U145" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD145" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>28</v>
       </c>
@@ -8056,11 +8271,11 @@
       <c r="R146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U146" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD146" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>28</v>
       </c>
@@ -8109,11 +8324,11 @@
       <c r="R147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U147" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD147" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>28</v>
       </c>
@@ -8162,11 +8377,11 @@
       <c r="R148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U148" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD148" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>28</v>
       </c>
@@ -8215,11 +8430,29 @@
       <c r="R149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U149" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V149" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="W149" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X149" s="1">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="Y149" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="Z149" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA149" s="1">
+        <v>16.18</v>
+      </c>
+      <c r="AD149" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>28</v>
       </c>
@@ -8268,11 +8501,11 @@
       <c r="R150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U150" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD150" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>28</v>
       </c>
@@ -8321,11 +8554,11 @@
       <c r="R151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U151" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD151" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>28</v>
       </c>
@@ -8374,11 +8607,11 @@
       <c r="R152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U152" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD152" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>28</v>
       </c>
@@ -8427,11 +8660,11 @@
       <c r="R153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U153" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD153" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>28</v>
       </c>
@@ -8480,11 +8713,11 @@
       <c r="R154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U154" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD154" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>28</v>
       </c>
@@ -8533,11 +8766,11 @@
       <c r="R155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U155" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD155" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>28</v>
       </c>
@@ -8586,11 +8819,11 @@
       <c r="R156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U156" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD156" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>28</v>
       </c>
@@ -8639,11 +8872,11 @@
       <c r="R157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U157" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD157" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>28</v>
       </c>
@@ -8692,11 +8925,11 @@
       <c r="R158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U158" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD158" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>28</v>
       </c>
@@ -8745,11 +8978,11 @@
       <c r="R159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U159" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD159" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>28</v>
       </c>
@@ -8798,11 +9031,11 @@
       <c r="R160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U160" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD160" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>28</v>
       </c>
@@ -8851,11 +9084,11 @@
       <c r="R161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U161" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD161" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>28</v>
       </c>
@@ -8904,11 +9137,29 @@
       <c r="R162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U162" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V162" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="W162" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X162" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="Z162" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA162" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="AD162" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>28</v>
       </c>
@@ -8957,11 +9208,11 @@
       <c r="R163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U163" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD163" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>28</v>
       </c>
@@ -9010,11 +9261,11 @@
       <c r="R164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U164" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD164" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>28</v>
       </c>
@@ -9063,11 +9314,11 @@
       <c r="R165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U165" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD165" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>28</v>
       </c>
@@ -9110,11 +9361,11 @@
       <c r="N166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U166" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD166" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>28</v>
       </c>
@@ -9157,11 +9408,11 @@
       <c r="N167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U167" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD167" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>28</v>
       </c>
@@ -9204,11 +9455,11 @@
       <c r="N168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U168" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD168" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>28</v>
       </c>
@@ -9251,11 +9502,11 @@
       <c r="N169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U169" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD169" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>28</v>
       </c>
@@ -9298,11 +9549,11 @@
       <c r="N170" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U170" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD170" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>28</v>
       </c>
@@ -9345,11 +9596,11 @@
       <c r="N171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U171" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD171" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>28</v>
       </c>
@@ -9392,11 +9643,11 @@
       <c r="N172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U172" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD172" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>28</v>
       </c>
@@ -9439,11 +9690,11 @@
       <c r="N173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U173" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD173" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>28</v>
       </c>
@@ -9486,11 +9737,11 @@
       <c r="N174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U174" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD174" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>28</v>
       </c>
@@ -9533,11 +9784,11 @@
       <c r="N175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U175" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD175" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>28</v>
       </c>
@@ -9580,11 +9831,11 @@
       <c r="N176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U176" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD176" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>28</v>
       </c>
@@ -9627,11 +9878,11 @@
       <c r="N177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U177" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD177" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>28</v>
       </c>
@@ -9680,11 +9931,29 @@
       <c r="R178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U178" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V178" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W178" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X178" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Y178" s="1">
+        <v>27.1</v>
+      </c>
+      <c r="Z178" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA178" s="1">
+        <v>11.87</v>
+      </c>
+      <c r="AD178" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>28</v>
       </c>
@@ -9733,11 +10002,11 @@
       <c r="R179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U179" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD179" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>28</v>
       </c>
@@ -9786,11 +10055,11 @@
       <c r="R180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U180" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD180" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>28</v>
       </c>
@@ -9839,11 +10108,11 @@
       <c r="R181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U181" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD181" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>28</v>
       </c>
@@ -9886,11 +10155,11 @@
       <c r="N182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U182" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD182" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>28</v>
       </c>
@@ -9933,11 +10202,11 @@
       <c r="N183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U183" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD183" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>28</v>
       </c>
@@ -9980,11 +10249,11 @@
       <c r="N184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U184" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD184" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>28</v>
       </c>
@@ -10027,11 +10296,11 @@
       <c r="N185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U185" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD185" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>28</v>
       </c>
@@ -10074,11 +10343,11 @@
       <c r="N186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U186" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD186" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>28</v>
       </c>
@@ -10121,11 +10390,11 @@
       <c r="N187" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U187" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD187" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>28</v>
       </c>
@@ -10168,11 +10437,11 @@
       <c r="N188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U188" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD188" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>28</v>
       </c>
@@ -10215,11 +10484,11 @@
       <c r="N189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U189" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD189" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>28</v>
       </c>
@@ -10262,11 +10531,11 @@
       <c r="N190" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U190" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD190" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>28</v>
       </c>
@@ -10309,11 +10578,11 @@
       <c r="N191" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U191" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD191" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>28</v>
       </c>
@@ -10362,11 +10631,29 @@
       <c r="R192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U192" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V192" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="W192" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X192" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="Y192" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="Z192" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA192" s="1">
+        <v>26.63</v>
+      </c>
+      <c r="AD192" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>28</v>
       </c>
@@ -10415,11 +10702,11 @@
       <c r="R193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U193" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD193" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>28</v>
       </c>
@@ -10468,11 +10755,11 @@
       <c r="R194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U194" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD194" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>28</v>
       </c>
@@ -10521,11 +10808,11 @@
       <c r="R195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U195" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD195" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>28</v>
       </c>
@@ -10574,11 +10861,11 @@
       <c r="R196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U196" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD196" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>28</v>
       </c>
@@ -10627,11 +10914,11 @@
       <c r="R197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U197" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD197" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>28</v>
       </c>
@@ -10674,11 +10961,11 @@
       <c r="N198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U198" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD198" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>28</v>
       </c>
@@ -10721,11 +11008,11 @@
       <c r="N199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U199" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD199" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>28</v>
       </c>
@@ -10768,11 +11055,11 @@
       <c r="N200" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U200" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD200" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>28</v>
       </c>
@@ -10815,11 +11102,11 @@
       <c r="N201" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U201" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD201" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>28</v>
       </c>
@@ -10862,11 +11149,11 @@
       <c r="N202" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U202" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD202" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>28</v>
       </c>
@@ -10909,11 +11196,11 @@
       <c r="N203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U203" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD203" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>28</v>
       </c>
@@ -10956,11 +11243,11 @@
       <c r="N204" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U204" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD204" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>28</v>
       </c>
@@ -11003,11 +11290,11 @@
       <c r="N205" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U205" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD205" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>28</v>
       </c>
@@ -11050,11 +11337,11 @@
       <c r="N206" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U206" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD206" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>28</v>
       </c>
@@ -11097,11 +11384,11 @@
       <c r="N207" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U207" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD207" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>28</v>
       </c>
@@ -11144,11 +11431,11 @@
       <c r="N208" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U208" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD208" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>28</v>
       </c>
@@ -11191,11 +11478,11 @@
       <c r="N209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U209" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD209" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>28</v>
       </c>
@@ -11244,11 +11531,29 @@
       <c r="R210" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U210" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V210" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="W210" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X210" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="Y210" s="1">
+        <v>121.1</v>
+      </c>
+      <c r="Z210" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA210" s="1">
+        <v>79.44</v>
+      </c>
+      <c r="AD210" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>28</v>
       </c>
@@ -11297,11 +11602,11 @@
       <c r="R211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U211" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD211" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>28</v>
       </c>
@@ -11350,11 +11655,11 @@
       <c r="R212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U212" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD212" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>28</v>
       </c>
@@ -11403,11 +11708,11 @@
       <c r="R213" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U213" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD213" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>28</v>
       </c>
@@ -11456,11 +11761,11 @@
       <c r="R214" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U214" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD214" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>28</v>
       </c>
@@ -11509,11 +11814,11 @@
       <c r="R215" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U215" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD215" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>28</v>
       </c>
@@ -11562,11 +11867,11 @@
       <c r="R216" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U216" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD216" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>28</v>
       </c>
@@ -11615,11 +11920,11 @@
       <c r="R217" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U217" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD217" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>28</v>
       </c>
@@ -11668,11 +11973,11 @@
       <c r="R218" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U218" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD218" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>28</v>
       </c>
@@ -11721,11 +12026,11 @@
       <c r="R219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U219" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD219" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>28</v>
       </c>
@@ -11774,11 +12079,11 @@
       <c r="R220" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U220" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD220" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>28</v>
       </c>
@@ -11827,11 +12132,11 @@
       <c r="R221" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U221" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD221" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>28</v>
       </c>
@@ -11880,11 +12185,11 @@
       <c r="R222" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U222" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD222" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>28</v>
       </c>
@@ -11933,11 +12238,11 @@
       <c r="R223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U223" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD223" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>28</v>
       </c>
@@ -11986,11 +12291,11 @@
       <c r="R224" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U224" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD224" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>28</v>
       </c>
@@ -12039,11 +12344,11 @@
       <c r="R225" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U225" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD225" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>28</v>
       </c>
@@ -12092,11 +12397,11 @@
       <c r="R226" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U226" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD226" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>28</v>
       </c>
@@ -12145,11 +12450,11 @@
       <c r="R227" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U227" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD227" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>28</v>
       </c>
@@ -12198,11 +12503,11 @@
       <c r="R228" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U228" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD228" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>28</v>
       </c>
@@ -12251,11 +12556,11 @@
       <c r="R229" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U229" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD229" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>28</v>
       </c>
@@ -12304,11 +12609,11 @@
       <c r="R230" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U230" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD230" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>28</v>
       </c>
@@ -12357,11 +12662,11 @@
       <c r="R231" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U231" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD231" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>28</v>
       </c>
@@ -12410,11 +12715,11 @@
       <c r="R232" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U232" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD232" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>28</v>
       </c>
@@ -12457,11 +12762,11 @@
       <c r="N233" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U233" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD233" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>28</v>
       </c>
@@ -12504,11 +12809,11 @@
       <c r="N234" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U234" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD234" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>28</v>
       </c>
@@ -12551,11 +12856,11 @@
       <c r="N235" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U235" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD235" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>28</v>
       </c>
@@ -12598,11 +12903,11 @@
       <c r="N236" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U236" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD236" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>28</v>
       </c>
@@ -12645,11 +12950,11 @@
       <c r="N237" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U237" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD237" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>28</v>
       </c>
@@ -12692,11 +12997,11 @@
       <c r="N238" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U238" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD238" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>28</v>
       </c>
@@ -12739,11 +13044,11 @@
       <c r="N239" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U239" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD239" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>28</v>
       </c>
@@ -12792,11 +13097,29 @@
       <c r="R240" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U240" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V240" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="W240" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X240" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="Y240" s="1">
+        <v>368.3</v>
+      </c>
+      <c r="Z240" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA240" s="1">
+        <v>142.09</v>
+      </c>
+      <c r="AD240" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>28</v>
       </c>
@@ -12845,11 +13168,11 @@
       <c r="R241" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U241" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD241" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>28</v>
       </c>
@@ -12898,11 +13221,11 @@
       <c r="R242" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U242" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD242" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>28</v>
       </c>
@@ -12951,11 +13274,11 @@
       <c r="R243" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U243" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD243" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>28</v>
       </c>
@@ -13004,11 +13327,11 @@
       <c r="R244" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U244" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD244" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>28</v>
       </c>
@@ -13057,11 +13380,11 @@
       <c r="R245" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U245" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD245" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>28</v>
       </c>
@@ -13110,11 +13433,11 @@
       <c r="R246" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U246" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD246" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>28</v>
       </c>
@@ -13163,11 +13486,11 @@
       <c r="R247" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U247" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD247" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>28</v>
       </c>
@@ -13216,11 +13539,11 @@
       <c r="R248" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U248" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD248" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>28</v>
       </c>
@@ -13269,11 +13592,11 @@
       <c r="R249" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U249" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD249" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>28</v>
       </c>
@@ -13322,11 +13645,11 @@
       <c r="R250" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U250" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD250" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>28</v>
       </c>
@@ -13375,11 +13698,11 @@
       <c r="R251" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U251" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD251" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>28</v>
       </c>
@@ -13428,11 +13751,11 @@
       <c r="R252" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U252" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD252" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>28</v>
       </c>
@@ -13481,11 +13804,11 @@
       <c r="R253" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U253" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD253" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>28</v>
       </c>
@@ -13534,11 +13857,11 @@
       <c r="R254" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U254" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD254" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>28</v>
       </c>
@@ -13581,11 +13904,11 @@
       <c r="N255" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U255" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD255" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>28</v>
       </c>
@@ -13628,11 +13951,11 @@
       <c r="N256" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U256" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD256" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>28</v>
       </c>
@@ -13675,11 +13998,11 @@
       <c r="N257" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U257" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD257" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>28</v>
       </c>
@@ -13728,11 +14051,29 @@
       <c r="R258" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U258" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V258" s="1">
+        <v>42.9</v>
+      </c>
+      <c r="W258" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X258" s="1">
+        <v>17.46</v>
+      </c>
+      <c r="Y258" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="Z258" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA258" s="1">
+        <v>22.81</v>
+      </c>
+      <c r="AD258" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>28</v>
       </c>
@@ -13781,11 +14122,11 @@
       <c r="R259" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U259" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD259" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>28</v>
       </c>
@@ -13834,11 +14175,11 @@
       <c r="R260" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U260" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD260" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>28</v>
       </c>
@@ -13887,11 +14228,11 @@
       <c r="R261" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U261" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD261" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>28</v>
       </c>
@@ -13940,11 +14281,11 @@
       <c r="R262" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U262" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD262" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>28</v>
       </c>
@@ -13993,11 +14334,11 @@
       <c r="R263" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U263" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD263" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>28</v>
       </c>
@@ -14046,11 +14387,11 @@
       <c r="R264" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U264" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD264" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>28</v>
       </c>
@@ -14099,11 +14440,11 @@
       <c r="R265" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U265" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD265" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>28</v>
       </c>
@@ -14152,11 +14493,11 @@
       <c r="R266" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U266" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD266" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>28</v>
       </c>
@@ -14205,11 +14546,11 @@
       <c r="R267" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U267" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD267" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>28</v>
       </c>
@@ -14258,11 +14599,11 @@
       <c r="R268" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U268" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD268" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>28</v>
       </c>
@@ -14311,11 +14652,11 @@
       <c r="R269" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U269" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD269" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>28</v>
       </c>
@@ -14364,11 +14705,11 @@
       <c r="R270" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U270" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD270" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>28</v>
       </c>
@@ -14417,11 +14758,11 @@
       <c r="R271" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U271" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD271" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>28</v>
       </c>
@@ -14470,11 +14811,11 @@
       <c r="R272" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U272" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD272" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>28</v>
       </c>
@@ -14523,11 +14864,11 @@
       <c r="R273" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U273" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD273" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>28</v>
       </c>
@@ -14576,11 +14917,11 @@
       <c r="R274" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U274" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD274" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>28</v>
       </c>
@@ -14629,11 +14970,29 @@
       <c r="R275" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U275" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V275" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="W275" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X275" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="Y275" s="1">
+        <v>104.8</v>
+      </c>
+      <c r="Z275" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA275" s="1">
+        <v>71.09</v>
+      </c>
+      <c r="AD275" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>28</v>
       </c>
@@ -14682,11 +15041,11 @@
       <c r="R276" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U276" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD276" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>28</v>
       </c>
@@ -14735,11 +15094,11 @@
       <c r="R277" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U277" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD277" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>28</v>
       </c>
@@ -14788,11 +15147,11 @@
       <c r="R278" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U278" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD278" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>28</v>
       </c>
@@ -14841,11 +15200,11 @@
       <c r="R279" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U279" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD279" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>28</v>
       </c>
@@ -14894,11 +15253,11 @@
       <c r="R280" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U280" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD280" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>28</v>
       </c>
@@ -14947,11 +15306,11 @@
       <c r="R281" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U281" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD281" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>28</v>
       </c>
@@ -15000,11 +15359,11 @@
       <c r="R282" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U282" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD282" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>28</v>
       </c>
@@ -15053,11 +15412,11 @@
       <c r="R283" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U283" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD283" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>28</v>
       </c>
@@ -15106,11 +15465,11 @@
       <c r="R284" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U284" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD284" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>28</v>
       </c>
@@ -15159,11 +15518,11 @@
       <c r="R285" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U285" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD285" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>28</v>
       </c>
@@ -15212,11 +15571,11 @@
       <c r="R286" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U286" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD286" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>28</v>
       </c>
@@ -15265,11 +15624,11 @@
       <c r="R287" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U287" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD287" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>28</v>
       </c>
@@ -15318,11 +15677,11 @@
       <c r="R288" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U288" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD288" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>28</v>
       </c>
@@ -15371,11 +15730,11 @@
       <c r="R289" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U289" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD289" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>28</v>
       </c>
@@ -15424,11 +15783,11 @@
       <c r="R290" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U290" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD290" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>28</v>
       </c>
@@ -15477,11 +15836,11 @@
       <c r="R291" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U291" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD291" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>28</v>
       </c>
@@ -15530,11 +15889,11 @@
       <c r="R292" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U292" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD292" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>28</v>
       </c>
@@ -15583,11 +15942,11 @@
       <c r="R293" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U293" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD293" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>28</v>
       </c>
@@ -15636,11 +15995,11 @@
       <c r="R294" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U294" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD294" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>28</v>
       </c>
@@ -15689,11 +16048,11 @@
       <c r="R295" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U295" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD295" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>28</v>
       </c>
@@ -15742,11 +16101,11 @@
       <c r="R296" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U296" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD296" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>28</v>
       </c>
@@ -15795,11 +16154,11 @@
       <c r="R297" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U297" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD297" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>28</v>
       </c>
@@ -15848,11 +16207,29 @@
       <c r="R298" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U298" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V298" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="W298" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X298" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="Y298" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="Z298" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA298" s="1">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="AD298" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>28</v>
       </c>
@@ -15901,11 +16278,11 @@
       <c r="R299" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U299" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD299" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>28</v>
       </c>
@@ -15954,11 +16331,11 @@
       <c r="R300" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U300" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD300" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>28</v>
       </c>
@@ -16007,11 +16384,11 @@
       <c r="R301" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U301" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD301" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>28</v>
       </c>
@@ -16060,11 +16437,11 @@
       <c r="R302" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U302" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD302" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>28</v>
       </c>
@@ -16113,11 +16490,11 @@
       <c r="R303" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U303" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD303" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>28</v>
       </c>
@@ -16166,11 +16543,11 @@
       <c r="R304" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U304" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD304" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>28</v>
       </c>
@@ -16219,11 +16596,11 @@
       <c r="R305" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U305" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD305" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>28</v>
       </c>
@@ -16272,11 +16649,11 @@
       <c r="R306" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U306" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD306" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>28</v>
       </c>
@@ -16325,11 +16702,11 @@
       <c r="R307" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U307" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD307" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>28</v>
       </c>
@@ -16378,11 +16755,11 @@
       <c r="R308" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U308" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD308" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>28</v>
       </c>
@@ -16431,11 +16808,11 @@
       <c r="R309" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U309" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD309" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>28</v>
       </c>
@@ -16485,11 +16862,11 @@
         <v>33</v>
       </c>
       <c r="S310"/>
-      <c r="U310" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD310" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>28</v>
       </c>
@@ -16539,11 +16916,11 @@
         <v>33</v>
       </c>
       <c r="S311"/>
-      <c r="U311" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD311" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>28</v>
       </c>
@@ -16593,11 +16970,11 @@
         <v>33</v>
       </c>
       <c r="S312"/>
-      <c r="U312" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD312" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>28</v>
       </c>
@@ -16647,11 +17024,29 @@
         <v>33</v>
       </c>
       <c r="S313"/>
-      <c r="U313" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V313" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="W313" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X313" s="1">
+        <v>7.33</v>
+      </c>
+      <c r="Y313" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="Z313" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA313" s="1">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="AD313" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>28</v>
       </c>
@@ -16701,11 +17096,11 @@
         <v>33</v>
       </c>
       <c r="S314"/>
-      <c r="U314" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD314" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>28</v>
       </c>
@@ -16755,11 +17150,11 @@
         <v>33</v>
       </c>
       <c r="S315"/>
-      <c r="U315" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD315" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>28</v>
       </c>
@@ -16809,11 +17204,11 @@
         <v>33</v>
       </c>
       <c r="S316"/>
-      <c r="U316" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD316" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>28</v>
       </c>
@@ -16863,11 +17258,11 @@
         <v>33</v>
       </c>
       <c r="S317"/>
-      <c r="U317" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD317" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>28</v>
       </c>
@@ -16917,11 +17312,11 @@
         <v>33</v>
       </c>
       <c r="S318"/>
-      <c r="U318" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD318" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>28</v>
       </c>
@@ -16971,11 +17366,11 @@
         <v>33</v>
       </c>
       <c r="S319"/>
-      <c r="U319" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD319" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>28</v>
       </c>
@@ -17025,11 +17420,11 @@
         <v>33</v>
       </c>
       <c r="S320"/>
-      <c r="U320" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD320" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>28</v>
       </c>
@@ -17079,11 +17474,11 @@
         <v>33</v>
       </c>
       <c r="S321"/>
-      <c r="U321" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD321" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>28</v>
       </c>
@@ -17133,11 +17528,11 @@
         <v>33</v>
       </c>
       <c r="S322"/>
-      <c r="U322" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD322" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>28</v>
       </c>
@@ -17187,11 +17582,11 @@
         <v>33</v>
       </c>
       <c r="S323"/>
-      <c r="U323" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD323" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>28</v>
       </c>
@@ -17241,11 +17636,29 @@
         <v>33</v>
       </c>
       <c r="S324"/>
-      <c r="U324" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V324" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="W324" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X324" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Y324" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="Z324" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA324" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="AD324" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>28</v>
       </c>
@@ -17294,11 +17707,11 @@
       <c r="R325" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U325" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD325" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>28</v>
       </c>
@@ -17347,11 +17760,11 @@
       <c r="R326" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U326" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD326" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>28</v>
       </c>
@@ -17400,11 +17813,11 @@
       <c r="R327" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U327" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD327" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>28</v>
       </c>
@@ -17453,11 +17866,11 @@
       <c r="R328" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U328" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD328" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>28</v>
       </c>
@@ -17506,11 +17919,11 @@
       <c r="R329" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U329" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD329" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>28</v>
       </c>
@@ -17559,11 +17972,11 @@
       <c r="R330" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U330" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD330" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>28</v>
       </c>
@@ -17612,11 +18025,11 @@
       <c r="R331" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U331" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD331" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>28</v>
       </c>
@@ -17659,11 +18072,11 @@
       <c r="N332" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U332" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD332" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>28</v>
       </c>
@@ -17706,11 +18119,11 @@
       <c r="N333" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U333" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD333" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>28</v>
       </c>
@@ -17753,11 +18166,11 @@
       <c r="N334" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U334" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD334" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>28</v>
       </c>
@@ -17800,11 +18213,11 @@
       <c r="N335" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U335" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD335" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>28</v>
       </c>
@@ -17847,11 +18260,11 @@
       <c r="N336" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U336" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD336" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>28</v>
       </c>
@@ -17894,11 +18307,11 @@
       <c r="N337" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U337" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD337" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>28</v>
       </c>
@@ -17941,11 +18354,11 @@
       <c r="N338" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U338" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD338" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>28</v>
       </c>
@@ -17994,11 +18407,29 @@
       <c r="R339" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U339" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V339" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="W339" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X339" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="Y339" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="Z339" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA339" s="1">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="AD339" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>28</v>
       </c>
@@ -18047,11 +18478,11 @@
       <c r="R340" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U340" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD340" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>28</v>
       </c>
@@ -18100,11 +18531,11 @@
       <c r="R341" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U341" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD341" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>28</v>
       </c>
@@ -18153,11 +18584,11 @@
       <c r="R342" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U342" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD342" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>28</v>
       </c>
@@ -18206,11 +18637,11 @@
       <c r="R343" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U343" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD343" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>28</v>
       </c>
@@ -18254,11 +18685,11 @@
         <v>33</v>
       </c>
       <c r="Q344"/>
-      <c r="U344" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD344" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>28</v>
       </c>
@@ -18301,11 +18732,11 @@
       <c r="N345" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U345" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD345" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>28</v>
       </c>
@@ -18348,11 +18779,11 @@
       <c r="N346" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U346" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD346" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>28</v>
       </c>
@@ -18395,11 +18826,11 @@
       <c r="N347" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U347" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD347" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>28</v>
       </c>
@@ -18442,11 +18873,11 @@
       <c r="N348" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U348" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD348" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>28</v>
       </c>
@@ -18489,11 +18920,11 @@
       <c r="N349" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U349" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD349" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>28</v>
       </c>
@@ -18536,11 +18967,11 @@
       <c r="N350" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U350" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD350" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>28</v>
       </c>
@@ -18583,11 +19014,11 @@
       <c r="N351" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U351" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD351" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>28</v>
       </c>
@@ -18630,11 +19061,11 @@
       <c r="N352" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U352" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD352" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>28</v>
       </c>
@@ -18683,11 +19114,29 @@
       <c r="R353" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U353" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V353" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W353" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X353" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Y353" s="8">
+        <v>29.8</v>
+      </c>
+      <c r="Z353" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA353" s="8">
+        <v>9.81</v>
+      </c>
+      <c r="AD353" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>28</v>
       </c>
@@ -18730,11 +19179,11 @@
       <c r="N354" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U354" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD354" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>28</v>
       </c>
@@ -18777,11 +19226,11 @@
       <c r="N355" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U355" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD355" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>28</v>
       </c>
@@ -18824,11 +19273,11 @@
       <c r="N356" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U356" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD356" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>28</v>
       </c>
@@ -18871,11 +19320,11 @@
       <c r="N357" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U357" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD357" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>28</v>
       </c>
@@ -18918,11 +19367,11 @@
       <c r="N358" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U358" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD358" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>28</v>
       </c>
@@ -18965,11 +19414,11 @@
       <c r="N359" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U359" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD359" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>28</v>
       </c>
@@ -19012,11 +19461,11 @@
       <c r="N360" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U360" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD360" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>28</v>
       </c>
@@ -19059,11 +19508,11 @@
       <c r="N361" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U361" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD361" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>28</v>
       </c>
@@ -19106,11 +19555,11 @@
       <c r="N362" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U362" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD362" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>28</v>
       </c>
@@ -19153,11 +19602,11 @@
       <c r="N363" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U363" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD363" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>28</v>
       </c>
@@ -19200,11 +19649,11 @@
       <c r="N364" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U364" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD364" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>28</v>
       </c>
@@ -19247,11 +19696,11 @@
       <c r="N365" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U365" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD365" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>28</v>
       </c>
@@ -19294,11 +19743,11 @@
       <c r="N366" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U366" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD366" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>28</v>
       </c>
@@ -19341,11 +19790,11 @@
       <c r="N367" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U367" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD367" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>28</v>
       </c>
@@ -19388,11 +19837,11 @@
       <c r="N368" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U368" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD368" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>28</v>
       </c>
@@ -19441,11 +19890,29 @@
       <c r="R369" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U369" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V369" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="W369" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X369" s="8">
+        <v>1.98</v>
+      </c>
+      <c r="Y369" s="8">
+        <v>42</v>
+      </c>
+      <c r="Z369" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA369" s="8">
+        <v>7.28</v>
+      </c>
+      <c r="AD369" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>28</v>
       </c>
@@ -19494,11 +19961,11 @@
       <c r="R370" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U370" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD370" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>28</v>
       </c>
@@ -19547,11 +20014,11 @@
       <c r="R371" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U371" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD371" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>28</v>
       </c>
@@ -19600,11 +20067,11 @@
       <c r="R372" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U372" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD372" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>28</v>
       </c>
@@ -19653,11 +20120,11 @@
       <c r="R373" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U373" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD373" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>28</v>
       </c>
@@ -19706,11 +20173,11 @@
       <c r="R374" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U374" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD374" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>28</v>
       </c>
@@ -19759,11 +20226,11 @@
       <c r="R375" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U375" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD375" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>28</v>
       </c>
@@ -19812,11 +20279,11 @@
       <c r="R376" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U376" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD376" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>28</v>
       </c>
@@ -19865,11 +20332,11 @@
       <c r="R377" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U377" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD377" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>28</v>
       </c>
@@ -19918,11 +20385,11 @@
       <c r="R378" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U378" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD378" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>28</v>
       </c>
@@ -19971,11 +20438,11 @@
       <c r="R379" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U379" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD379" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>28</v>
       </c>
@@ -20024,11 +20491,11 @@
       <c r="R380" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U380" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD380" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>28</v>
       </c>
@@ -20077,11 +20544,11 @@
       <c r="R381" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U381" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD381" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>28</v>
       </c>
@@ -20130,11 +20597,11 @@
       <c r="R382" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U382" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD382" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>28</v>
       </c>
@@ -20183,11 +20650,11 @@
       <c r="R383" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U383" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD383" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>28</v>
       </c>
@@ -20236,11 +20703,11 @@
       <c r="R384" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U384" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD384" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>28</v>
       </c>
@@ -20283,11 +20750,11 @@
       <c r="N385" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U385" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD385" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>28</v>
       </c>
@@ -20330,11 +20797,11 @@
       <c r="N386" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U386" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD386" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>28</v>
       </c>
@@ -20377,11 +20844,11 @@
       <c r="N387" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U387" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD387" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>28</v>
       </c>
@@ -20424,11 +20891,11 @@
       <c r="N388" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U388" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD388" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>28</v>
       </c>
@@ -20471,11 +20938,11 @@
       <c r="N389" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U389" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD389" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>28</v>
       </c>
@@ -20518,11 +20985,11 @@
       <c r="N390" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U390" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD390" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>28</v>
       </c>
@@ -20565,11 +21032,11 @@
       <c r="N391" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U391" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD391" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>28</v>
       </c>
@@ -20612,11 +21079,11 @@
       <c r="N392" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U392" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD392" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>28</v>
       </c>
@@ -20659,11 +21126,11 @@
       <c r="N393" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U393" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD393" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>28</v>
       </c>
@@ -20706,11 +21173,11 @@
       <c r="N394" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U394" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD394" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>28</v>
       </c>
@@ -20759,11 +21226,29 @@
       <c r="R395" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U395" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V395" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="W395" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X395" s="8">
+        <v>12.23</v>
+      </c>
+      <c r="Y395" s="8">
+        <v>110.2</v>
+      </c>
+      <c r="Z395" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA395" s="8">
+        <v>41.63</v>
+      </c>
+      <c r="AD395" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>28</v>
       </c>
@@ -20812,11 +21297,11 @@
       <c r="R396" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U396" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD396" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>28</v>
       </c>
@@ -20865,11 +21350,11 @@
       <c r="R397" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U397" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD397" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>28</v>
       </c>
@@ -20918,11 +21403,11 @@
       <c r="R398" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U398" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD398" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>28</v>
       </c>
@@ -20971,11 +21456,11 @@
       <c r="R399" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U399" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD399" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>28</v>
       </c>
@@ -21024,11 +21509,11 @@
       <c r="R400" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U400" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD400" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>28</v>
       </c>
@@ -21077,11 +21562,11 @@
       <c r="R401" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U401" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD401" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>28</v>
       </c>
@@ -21130,11 +21615,11 @@
       <c r="R402" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U402" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD402" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>28</v>
       </c>
@@ -21183,11 +21668,11 @@
       <c r="R403" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U403" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD403" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>28</v>
       </c>
@@ -21236,11 +21721,11 @@
       <c r="R404" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U404" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD404" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>28</v>
       </c>
@@ -21289,11 +21774,11 @@
       <c r="R405" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U405" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD405" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>28</v>
       </c>
@@ -21342,11 +21827,11 @@
       <c r="R406" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U406" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD406" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>28</v>
       </c>
@@ -21395,11 +21880,11 @@
       <c r="R407" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U407" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD407" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>28</v>
       </c>
@@ -21448,11 +21933,11 @@
       <c r="R408" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U408" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD408" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>28</v>
       </c>
@@ -21501,11 +21986,11 @@
       <c r="R409" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U409" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD409" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>28</v>
       </c>
@@ -21548,11 +22033,11 @@
       <c r="N410" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U410" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD410" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>28</v>
       </c>
@@ -21601,11 +22086,29 @@
       <c r="R411" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U411" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V411" s="8">
+        <v>10.6</v>
+      </c>
+      <c r="W411" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X411" s="8">
+        <v>4.18</v>
+      </c>
+      <c r="Y411" s="8">
+        <v>81.3</v>
+      </c>
+      <c r="Z411" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA411" s="8">
+        <v>19.87</v>
+      </c>
+      <c r="AD411" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>28</v>
       </c>
@@ -21654,11 +22157,11 @@
       <c r="R412" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U412" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD412" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>28</v>
       </c>
@@ -21707,11 +22210,11 @@
       <c r="R413" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U413" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD413" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>28</v>
       </c>
@@ -21760,11 +22263,11 @@
       <c r="R414" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U414" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD414" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>28</v>
       </c>
@@ -21813,11 +22316,11 @@
       <c r="R415" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U415" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD415" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>28</v>
       </c>
@@ -21866,11 +22369,11 @@
       <c r="R416" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U416" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD416" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>28</v>
       </c>
@@ -21919,11 +22422,11 @@
       <c r="R417" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U417" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD417" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>28</v>
       </c>
@@ -21972,11 +22475,11 @@
       <c r="R418" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U418" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD418" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>28</v>
       </c>
@@ -22025,11 +22528,11 @@
       <c r="R419" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U419" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD419" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>28</v>
       </c>
@@ -22078,11 +22581,11 @@
       <c r="R420" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U420" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD420" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>28</v>
       </c>
@@ -22131,11 +22634,11 @@
       <c r="R421" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U421" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD421" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>28</v>
       </c>
@@ -22178,11 +22681,11 @@
       <c r="N422" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U422" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD422" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>28</v>
       </c>
@@ -22225,11 +22728,11 @@
       <c r="N423" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U423" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD423" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>28</v>
       </c>
@@ -22272,11 +22775,11 @@
       <c r="N424" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U424" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD424" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>28</v>
       </c>
@@ -22319,11 +22822,11 @@
       <c r="N425" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U425" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD425" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>28</v>
       </c>
@@ -22366,11 +22869,11 @@
       <c r="N426" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U426" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD426" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>28</v>
       </c>
@@ -22419,11 +22922,29 @@
       <c r="R427" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U427" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V427" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="W427" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X427" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="Y427" s="8">
+        <v>57.5</v>
+      </c>
+      <c r="Z427" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA427" s="8">
+        <v>7.92</v>
+      </c>
+      <c r="AD427" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>28</v>
       </c>
@@ -22472,11 +22993,11 @@
       <c r="R428" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U428" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD428" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>28</v>
       </c>
@@ -22525,11 +23046,11 @@
       <c r="R429" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U429" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD429" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>28</v>
       </c>
@@ -22578,11 +23099,11 @@
       <c r="R430" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U430" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD430" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>28</v>
       </c>
@@ -22631,11 +23152,11 @@
       <c r="R431" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U431" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD431" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>28</v>
       </c>
@@ -22684,11 +23205,11 @@
       <c r="R432" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U432" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD432" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>28</v>
       </c>
@@ -22737,11 +23258,11 @@
       <c r="R433" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U433" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD433" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>28</v>
       </c>
@@ -22790,11 +23311,11 @@
       <c r="R434" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U434" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD434" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>28</v>
       </c>
@@ -22843,11 +23364,29 @@
       <c r="R435" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U435" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V435" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="W435" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X435" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="Y435" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="Z435" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA435" s="8">
+        <v>47.19</v>
+      </c>
+      <c r="AD435" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>28</v>
       </c>
@@ -22896,11 +23435,11 @@
       <c r="R436" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U436" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD436" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>28</v>
       </c>
@@ -22949,11 +23488,11 @@
       <c r="R437" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U437" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD437" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>28</v>
       </c>
@@ -23002,11 +23541,11 @@
       <c r="R438" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U438" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD438" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>28</v>
       </c>
@@ -23055,11 +23594,11 @@
       <c r="R439" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U439" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD439" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>28</v>
       </c>
@@ -23108,11 +23647,11 @@
       <c r="R440" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U440" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD440" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>28</v>
       </c>
@@ -23161,11 +23700,11 @@
       <c r="R441" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U441" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD441" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>28</v>
       </c>
@@ -23214,11 +23753,11 @@
       <c r="R442" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U442" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD442" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>28</v>
       </c>
@@ -23267,11 +23806,11 @@
       <c r="R443" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U443" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD443" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>28</v>
       </c>
@@ -23320,11 +23859,11 @@
       <c r="R444" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U444" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD444" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>28</v>
       </c>
@@ -23367,11 +23906,11 @@
       <c r="N445" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U445" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD445" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>28</v>
       </c>
@@ -23414,11 +23953,11 @@
       <c r="N446" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U446" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD446" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>28</v>
       </c>
@@ -23461,11 +24000,11 @@
       <c r="N447" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U447" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD447" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>28</v>
       </c>
@@ -23514,11 +24053,29 @@
       <c r="R448" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U448" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V448" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W448" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X448" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="Y448" s="8">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="Z448" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA448" s="8">
+        <v>28.78</v>
+      </c>
+      <c r="AD448" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>28</v>
       </c>
@@ -23567,11 +24124,11 @@
       <c r="R449" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U449" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD449" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>28</v>
       </c>
@@ -23620,11 +24177,11 @@
       <c r="R450" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U450" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD450" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>28</v>
       </c>
@@ -23673,11 +24230,11 @@
       <c r="R451" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U451" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD451" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>28</v>
       </c>
@@ -23726,11 +24283,11 @@
       <c r="R452" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U452" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD452" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>28</v>
       </c>
@@ -23779,71 +24336,71 @@
       <c r="R453" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U453" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD453" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H455" s="2"/>
       <c r="I455" s="2"/>
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
@@ -26814,7 +27371,7 @@
       <c r="K958" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V162">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE162">
     <sortCondition ref="I2:I162"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
